--- a/temp/datasubset_2.xlsx
+++ b/temp/datasubset_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="11">
   <si>
     <t>A</t>
   </si>
@@ -392,53 +392,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="n" s="0">
-        <v>3.0</v>
+      <c r="A3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="n" s="0">
-        <v>4.0</v>
+      <c r="A4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="n" s="0">
-        <v>5.0</v>
+      <c r="A5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="n" s="0">
-        <v>6.0</v>
+      <c r="A6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="n" s="0">
-        <v>7.0</v>
+      <c r="A7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="n" s="0">
-        <v>8.0</v>
+      <c r="A8">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="n" s="0">
-        <v>9.0</v>
+      <c r="A9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="n" s="0">
-        <v>10.0</v>
+      <c r="A10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
